--- a/medicine/Enfance/Erwin_et_les_Elfes_d'Argent/Erwin_et_les_Elfes_d'Argent.xlsx
+++ b/medicine/Enfance/Erwin_et_les_Elfes_d'Argent/Erwin_et_les_Elfes_d'Argent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Erwin_et_les_Elfes_d%27Argent</t>
+          <t>Erwin_et_les_Elfes_d'Argent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Erwin et les Elfes d'Argent est une suite romanesque de heroic fantasy, écrite par Clémence Lewden, sous le pseudonyme de Yong K. Ils content les aventures d'un jeune garçon Erwin Ga'huis et son amie Elena Bra’jihye dans un monde à l'époque où apparu le tout premier dragon : Pyhrus, qui sera le fidèle compagnon d'Erwin. L'intrigue principale emmène les jeunes aventuriers pour protéger un monde perdu sur les traces des elfes d'argent, ancienne race mythique disparue des siècles avant leur ère[1].
+Erwin et les Elfes d'Argent est une suite romanesque de heroic fantasy, écrite par Clémence Lewden, sous le pseudonyme de Yong K. Ils content les aventures d'un jeune garçon Erwin Ga'huis et son amie Elena Bra’jihye dans un monde à l'époque où apparu le tout premier dragon : Pyhrus, qui sera le fidèle compagnon d'Erwin. L'intrigue principale emmène les jeunes aventuriers pour protéger un monde perdu sur les traces des elfes d'argent, ancienne race mythique disparue des siècles avant leur ère.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Erwin_et_les_Elfes_d%27Argent</t>
+          <t>Erwin_et_les_Elfes_d'Argent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’histoire se déroule dans un monde où la magie n’est que connu dans les contes. Le tome 1 : La Porte de Feu raconte l’histoire de quatre héros : Erwin, jeune de quinze ans, va se retrouver bien malgré lui propulser dans une aventure aux confins des frontières de son monde vers une réalité oubliée. Protecteur de la mystérieuse clé de la porte de feu, il va devoir affronter les forces menaçant son monde et celui qu’il vient de découvrir. Il sera aidé dans sa quête par son amie, Elena, ainsi que par deux créatures légendaires : Lyra et Pyhrus. Le monde qu’ils découvriront sera rempli de races toutes plus fabuleuses les unes que les autres, mais aussi hostiles et menaçantes[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’histoire se déroule dans un monde où la magie n’est que connu dans les contes. Le tome 1 : La Porte de Feu raconte l’histoire de quatre héros : Erwin, jeune de quinze ans, va se retrouver bien malgré lui propulser dans une aventure aux confins des frontières de son monde vers une réalité oubliée. Protecteur de la mystérieuse clé de la porte de feu, il va devoir affronter les forces menaçant son monde et celui qu’il vient de découvrir. Il sera aidé dans sa quête par son amie, Elena, ainsi que par deux créatures légendaires : Lyra et Pyhrus. Le monde qu’ils découvriront sera rempli de races toutes plus fabuleuses les unes que les autres, mais aussi hostiles et menaçantes
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Erwin_et_les_Elfes_d%27Argent</t>
+          <t>Erwin_et_les_Elfes_d'Argent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans le début de la saga, quatre personnages principaux partagent l’intrigue : Erwin Gah’ui, Elena Brav’jivi mais également leurs deux compagnons mythiques, à savoir Lyra ainsi que Pyhrus, dragon dont la race n’existait pas et n’était pas encore connue. Au fil des pages ce dragon se révèlera être le premier de son espèce. Le mystère de sa naissance reste entier dans le premier tome
 Erwin Ga’huis : jeune garçon de 15 ans vivant dans la ville de Aeropy. Dessinateur hors pair, mais aussi rêveur, il a une personnalité complexe. À la fois aventureux et prudent, il aime percer les mystères qui l’entourent.
